--- a/src/main/resources/config.xlsx
+++ b/src/main/resources/config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t xml:space="preserve">Contexte</t>
   </si>
@@ -49,13 +49,67 @@
     <t xml:space="preserve">validation</t>
   </si>
   <si>
-    <t xml:space="preserve">nom != null &amp;&amp; nom.length() &gt;= 1 &amp;&amp; nom.length() &lt;= 76</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nom </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">est présent et</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> nom.taille est supérieur ou égal à 1 et nom.taille est inférieur ou égal à 76</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">prenom</t>
   </si>
   <si>
-    <t xml:space="preserve">prenom != null &amp;&amp; prenom.length() &gt;= 1 &amp;&amp; prenom.length() &lt;= 76</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">prenom </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">est présent et</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> prenom.taille est supérieur ou égal à 1 et prenom.taille est inférieur ou égal à 76</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">rue</t>
@@ -64,22 +118,129 @@
     <t xml:space="preserve">coordonee</t>
   </si>
   <si>
-    <t xml:space="preserve">rue != null &amp;&amp; rue.length() &gt;= 1 &amp;&amp; rue.length() &lt;= 76</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">est présent et</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> rue.taille est supérieur ou égal à 1 et rue.taille est inférieur ou égal à 76</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">ville</t>
   </si>
   <si>
-    <t xml:space="preserve">ville != null &amp;&amp; ville.length() &gt;= 1 &amp;&amp; ville.length() &lt;= 76</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ville </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">est présent et</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ville.taille est supérieur ou égal à 1 et ville.taille est inférieur ou égal à 76</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">pays</t>
   </si>
   <si>
-    <t xml:space="preserve">pays!= null &amp;&amp; pays.length() &gt;= 1 &amp;&amp; pays.length() &lt;= 76</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pays </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">est présent et</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pays.taille est supérieur ou égal à 1 et pays.taille est inférieur ou égal à 76</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">premier_demande_passeport_majeur</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nom </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">est présent et</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> nom.taille est supérieur ou égal à 1 et nom.taille est inférieur ou égal à 76</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -194,7 +355,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,10 +373,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -242,8 +399,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -273,7 +430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -290,7 +447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -303,12 +460,12 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -320,12 +477,12 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="5" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -337,12 +494,12 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+    <row r="6" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -354,11 +511,11 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -371,11 +528,11 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -388,12 +545,12 @@
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+    <row r="9" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -405,12 +562,12 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+    <row r="10" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -422,12 +579,12 @@
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+    <row r="11" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -439,7 +596,7 @@
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/src/main/resources/config.xlsx
+++ b/src/main/resources/config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
   <si>
     <t xml:space="preserve">Contexte</t>
   </si>
@@ -65,6 +65,7 @@
         <color rgb="FF000000"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">est présent et</t>
     </r>
@@ -89,6 +90,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">prenom </t>
     </r>
@@ -98,6 +100,7 @@
         <color rgb="FF000000"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">est présent et</t>
     </r>
@@ -107,6 +110,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> prenom.taille est supérieur ou égal à 1 et prenom.taille est inférieur ou égal à 76</t>
     </r>
@@ -115,15 +119,16 @@
     <t xml:space="preserve">rue</t>
   </si>
   <si>
-    <t xml:space="preserve">coordonee</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <t xml:space="preserve">coordonnee</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">rue </t>
     </r>
@@ -133,6 +138,7 @@
         <color rgb="FF000000"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">est présent et</t>
     </r>
@@ -142,6 +148,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> rue.taille est supérieur ou égal à 1 et rue.taille est inférieur ou égal à 76</t>
     </r>
@@ -156,6 +163,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ville </t>
     </r>
@@ -165,6 +173,7 @@
         <color rgb="FF000000"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">est présent et</t>
     </r>
@@ -174,6 +183,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> ville.taille est supérieur ou égal à 1 et ville.taille est inférieur ou égal à 76</t>
     </r>
@@ -188,6 +198,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">pays </t>
     </r>
@@ -197,6 +208,7 @@
         <color rgb="FF000000"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">est présent et</t>
     </r>
@@ -206,41 +218,13 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> pays.taille est supérieur ou égal à 1 et pays.taille est inférieur ou égal à 76</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">premier_demande_passeport_majeur</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nom </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">est présent et</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> nom.taille est supérieur ou égal à 1 et nom.taille est inférieur ou égal à 76</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -250,7 +234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -286,18 +270,6 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -355,7 +327,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -373,10 +345,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -399,8 +367,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -460,7 +428,7 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -477,7 +445,7 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -494,7 +462,7 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -511,7 +479,7 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -528,8 +496,8 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,7 +513,7 @@
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -562,7 +530,7 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -579,7 +547,7 @@
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -596,7 +564,7 @@
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
